--- a/biology/Botanique/Podophylle_pelté/Podophylle_pelté.xlsx
+++ b/biology/Botanique/Podophylle_pelté/Podophylle_pelté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Podophylle_pelt%C3%A9</t>
+          <t>Podophylle_pelté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Podophyllum peltatum
 Le Podophylle pelté (Podophyllum peltatum) ou Podophylle d'Amérique ou encore Pomme de mai est une espèce de plantes herbacées vivaces de la famille des Berbéridacées qui pousse en Amérique du Nord.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Podophylle_pelt%C3%A9</t>
+          <t>Podophylle_pelté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On retrouve le Podophylle pelté aux États-Unis, du Texas à la Floride jusqu'au Minnesota et au Maine.
-Au Canada, on retrouve la plante en Nouvelle-Écosse, au sud de l'Ontario et au sud du Québec[2]. Au Québec, on ne retrouve cette plante qu'au sud-ouest de Trois-Rivières, notamment sur la colline d’Oka et sur le mont Royal. Elle a été désignée menacée par le gouvernement du Québec[3].
+Au Canada, on retrouve la plante en Nouvelle-Écosse, au sud de l'Ontario et au sud du Québec. Au Québec, on ne retrouve cette plante qu'au sud-ouest de Trois-Rivières, notamment sur la colline d’Oka et sur le mont Royal. Elle a été désignée menacée par le gouvernement du Québec.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Podophylle_pelt%C3%A9</t>
+          <t>Podophylle_pelté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses fruits sont comestibles[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses fruits sont comestibles.
 Cette plante était utilisé il y a 100 ans pour ses propriétés verrucides[réf. nécessaire].
 La podophyllotoxine, lignane que l'on trouve dans les racines de la plante, est utilisé pour le traitement des condylomes génitaux.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Podophylle_pelt%C3%A9</t>
+          <t>Podophylle_pelté</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toute la plante est toxique, sauf le fruit mûr[5].
-Le podophylle pelté contient de la podophyllotoxine, de l'alpha-peltatine et de la béta-peltatine[5] (lignanes), des molécules toxiques. Il existe des molécules dérivées tels que la téniposide ou encore l'étoposide. leurs principes actifs sont les Glycosides[réf. nécessaire].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toute la plante est toxique, sauf le fruit mûr.
+Le podophylle pelté contient de la podophyllotoxine, de l'alpha-peltatine et de la béta-peltatine (lignanes), des molécules toxiques. Il existe des molécules dérivées tels que la téniposide ou encore l'étoposide. leurs principes actifs sont les Glycosides[réf. nécessaire].
 </t>
         </is>
       </c>
